--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value414.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value414.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202724034683459</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>1.915810263379403</v>
+        <v>3.647341012954712</v>
       </c>
       <c r="C1">
-        <v>3.071916730653329</v>
+        <v>1.960239887237549</v>
       </c>
       <c r="D1">
-        <v>2.046256164553239</v>
+        <v>1.536244750022888</v>
       </c>
       <c r="E1">
-        <v>0.5492780513633101</v>
+        <v>1.396791100502014</v>
       </c>
     </row>
   </sheetData>
